--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\OneDrive\Documents\UiPath\TreasuryConfirmation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testb\Documents\UiPath\FederalBotFactory\TreasuryConfirmation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C208C-0875-40D7-B243-E60BCF163E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4684397E-B22A-4EC8-AEFD-4953805489F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,9 +421,6 @@
     <t>Failed - System Exception</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>TimeOut_HandleSecurityWarnings_Continue</t>
   </si>
   <si>
@@ -864,6 +861,9 @@
   </si>
   <si>
     <t>gmahesh2789@gmail.com; hariharangouri@gmail.com; sunil.melam@gmail.com</t>
+  </si>
+  <si>
+    <t>TreasuryConfirmation_</t>
   </si>
 </sst>
 </file>
@@ -916,30 +916,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1312,7 +1308,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -1349,10 +1345,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
@@ -1362,7 +1358,7 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
@@ -1374,10 +1370,10 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s">
         <v>153</v>
-      </c>
-      <c r="B12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
@@ -1408,122 +1404,122 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.5">
       <c r="A23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.5">
       <c r="A24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.5">
       <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s">
         <v>205</v>
-      </c>
-      <c r="B26" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.5">
       <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.5">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.5">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.5">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1549,7 +1545,7 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
@@ -1570,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1">
@@ -1581,68 +1577,68 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.5">
       <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
         <v>156</v>
-      </c>
-      <c r="B44" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.5">
       <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" t="s">
         <v>180</v>
-      </c>
-      <c r="B45" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.5">
       <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
         <v>178</v>
-      </c>
-      <c r="B46" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.5">
       <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s">
         <v>182</v>
-      </c>
-      <c r="B47" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.5">
       <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
         <v>184</v>
-      </c>
-      <c r="B48" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.5">
       <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
         <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.5">
       <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
         <v>147</v>
-      </c>
-      <c r="B50" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.5">
@@ -1655,26 +1651,26 @@
     </row>
     <row r="52" spans="1:2" ht="14.5">
       <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
         <v>149</v>
-      </c>
-      <c r="B52" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.5">
       <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s">
         <v>188</v>
-      </c>
-      <c r="B53" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.5">
       <c r="A54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" t="s">
         <v>190</v>
-      </c>
-      <c r="B54" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
@@ -1690,31 +1686,31 @@
         <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" t="s">
         <v>223</v>
-      </c>
-      <c r="B58" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.5">
       <c r="A59" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.5">
@@ -1722,127 +1718,127 @@
         <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.5">
       <c r="A61" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.5">
       <c r="A62" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.5">
       <c r="A63" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.5">
       <c r="A64" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.5">
       <c r="A65" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.5">
       <c r="A66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.5">
       <c r="A67" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.5">
       <c r="A68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.5">
       <c r="A69" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.5">
       <c r="A70" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.5">
       <c r="A71" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.5">
       <c r="A72" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.5">
       <c r="A73" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.5">
       <c r="A74" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.5">
       <c r="A75" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.5">
@@ -1891,26 +1887,26 @@
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A83" s="9" t="s">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
         <v>194</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A84" s="9" t="s">
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" t="s">
         <v>192</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
@@ -1918,10 +1914,10 @@
       <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A86" s="6" t="s">
+      <c r="A86" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="5">
         <v>2000</v>
       </c>
       <c r="C86" t="s">
@@ -1929,7 +1925,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A87" s="6" t="s">
+      <c r="A87" t="s">
         <v>71</v>
       </c>
       <c r="B87">
@@ -1940,28 +1936,26 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A88" s="6" t="s">
+      <c r="A88" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A89" s="6" t="s">
+      <c r="A89" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="5">
         <v>3</v>
       </c>
-      <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A90" s="6" t="s">
+      <c r="A90" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="5">
         <v>3</v>
       </c>
       <c r="C90" t="s">
@@ -1973,7 +1967,7 @@
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2048,8 +2042,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
       <c r="A105" t="s">
@@ -2085,9 +2078,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
       <c r="A109" t="s">
@@ -2153,7 +2144,7 @@
     <row r="116" spans="1:3" ht="17.5" customHeight="1"/>
     <row r="117" spans="1:3" ht="17.5" customHeight="1">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B117">
         <v>3000</v>
@@ -2168,13 +2159,11 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="6"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:3" ht="14" customHeight="1">
       <c r="A121" t="s">
@@ -2190,7 +2179,7 @@
     <row r="122" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="123" spans="1:3" ht="14.25" customHeight="1">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123">
         <v>60000</v>
@@ -2201,7 +2190,7 @@
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B124">
         <v>60000</v>
@@ -2212,7 +2201,7 @@
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125">
         <v>60000</v>
@@ -2223,7 +2212,7 @@
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1">
       <c r="A126" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -2234,7 +2223,7 @@
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -2245,7 +2234,7 @@
     </row>
     <row r="128" spans="1:3" ht="14.5" customHeight="1">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -2256,302 +2245,293 @@
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="130" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A130" s="6" t="s">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
         <v>143</v>
       </c>
-      <c r="B130" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="131" spans="1:3" ht="17.5" customHeight="1"/>
-    <row r="132" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:3" ht="14.5">
+      <c r="A132" t="s">
         <v>50</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:3" ht="14.5">
+      <c r="A133" t="s">
         <v>51</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:3" ht="14.5">
+      <c r="A134" t="s">
         <v>54</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A135" s="6" t="s">
+    <row r="135" spans="1:3" ht="14.5">
+      <c r="A135" t="s">
         <v>56</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="6" customFormat="1" ht="14.5"/>
-    <row r="137" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A137" s="6" t="s">
+    <row r="136" spans="1:3" ht="14.5"/>
+    <row r="137" spans="1:3" ht="14.5">
+      <c r="A137" t="s">
         <v>57</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:3" ht="14.5">
+      <c r="A138" t="s">
         <v>59</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="6" customFormat="1" ht="14.5">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:3" ht="14.5">
+      <c r="A139" t="s">
         <v>60</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="5">
         <v>60</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="141" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A141" s="6" t="s">
+      <c r="A141" t="s">
         <v>57</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C141" s="6"/>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A142" s="6" t="s">
+      <c r="A142" t="s">
         <v>59</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C142" s="6"/>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A143" s="6" t="s">
+      <c r="A143" t="s">
         <v>60</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="5">
         <v>60</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-    </row>
+    <row r="144" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="145" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A145" s="6" t="s">
+      <c r="A145" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A146" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C145" s="6" t="s">
+      <c r="B146" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A147" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C146" s="6"/>
-    </row>
-    <row r="147" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A147" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C147" s="6"/>
-    </row>
-    <row r="148" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A149" s="6" t="s">
+      <c r="A149" t="s">
         <v>47</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="5">
         <v>60000</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="151" spans="1:3" ht="14.25" customHeight="1">
       <c r="A151" t="s">
-        <v>139</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C151" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" t="s">
+        <v>278</v>
+      </c>
+      <c r="C151" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1">
       <c r="A152" t="s">
-        <v>140</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>209</v>
+        <v>139</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1">
       <c r="A153" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14" customHeight="1"/>
     <row r="155" spans="1:3" ht="14" customHeight="1">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B155">
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14" customHeight="1"/>
     <row r="157" spans="1:3" ht="14" customHeight="1">
       <c r="A157" t="s">
+        <v>211</v>
+      </c>
+      <c r="B157" t="s">
         <v>212</v>
-      </c>
-      <c r="B157" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14" customHeight="1">
       <c r="A158" t="s">
+        <v>271</v>
+      </c>
+      <c r="B158" t="s">
         <v>272</v>
-      </c>
-      <c r="B158" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14" customHeight="1">
       <c r="A159" t="s">
+        <v>273</v>
+      </c>
+      <c r="B159" t="s">
         <v>274</v>
-      </c>
-      <c r="B159" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14" customHeight="1"/>
     <row r="161" spans="1:3" ht="14" customHeight="1">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14" customHeight="1">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B162" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14" customHeight="1"/>
     <row r="164" spans="1:3" ht="15" customHeight="1">
       <c r="A164" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1">
       <c r="A166" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1">
       <c r="A167" t="s">
+        <v>257</v>
+      </c>
+      <c r="B167" t="s">
         <v>258</v>
-      </c>
-      <c r="B167" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="169" spans="1:3" ht="15" customHeight="1">
       <c r="A169" t="s">
-        <v>262</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1">
       <c r="A170" t="s">
-        <v>263</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1">
-      <c r="B171" s="12"/>
+      <c r="B171" s="8"/>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1">
       <c r="A172" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B172" s="2">
         <v>25</v>
       </c>
       <c r="C172" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1">
@@ -2587,87 +2567,59 @@
     <row r="197" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="198" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="199" spans="2:2" ht="14.25" customHeight="1"/>
-    <row r="200" spans="2:2" s="6" customFormat="1" ht="14.5"/>
-    <row r="201" spans="2:2" s="6" customFormat="1" ht="14.5">
-      <c r="B201" s="7"/>
-    </row>
-    <row r="202" spans="2:2" s="6" customFormat="1" ht="14.5">
-      <c r="B202" s="7"/>
-    </row>
-    <row r="203" spans="2:2" s="6" customFormat="1" ht="14.5">
-      <c r="B203" s="7"/>
-    </row>
-    <row r="204" spans="2:2" s="6" customFormat="1" ht="14.5"/>
-    <row r="205" spans="2:2" s="6" customFormat="1" ht="14.5">
-      <c r="B205" s="7"/>
-    </row>
-    <row r="206" spans="2:2" s="6" customFormat="1" ht="14.5">
-      <c r="B206" s="7"/>
-    </row>
-    <row r="207" spans="2:2" s="6" customFormat="1" ht="14.5">
-      <c r="B207" s="7"/>
+    <row r="200" spans="2:2" ht="14.5"/>
+    <row r="201" spans="2:2" ht="14.5">
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="2:2" ht="14.5">
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="2:2" ht="14.5">
+      <c r="B203" s="5"/>
+    </row>
+    <row r="204" spans="2:2" ht="14.5"/>
+    <row r="205" spans="2:2" ht="14.5">
+      <c r="B205" s="5"/>
+    </row>
+    <row r="206" spans="2:2" ht="14.5">
+      <c r="B206" s="5"/>
+    </row>
+    <row r="207" spans="2:2" ht="14.5">
+      <c r="B207" s="5"/>
     </row>
     <row r="208" spans="2:2" ht="14.25" customHeight="1"/>
-    <row r="209" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A209" s="6"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="6"/>
-    </row>
-    <row r="210" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A210" s="6"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="6"/>
-    </row>
-    <row r="211" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A211" s="6"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="6"/>
-    </row>
-    <row r="212" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-    </row>
-    <row r="213" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A213" s="6"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="6"/>
-    </row>
-    <row r="214" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A214" s="6"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="6"/>
-    </row>
-    <row r="215" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A215" s="6"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="6"/>
-    </row>
-    <row r="216" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-    </row>
-    <row r="217" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A217" s="6"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="6"/>
-    </row>
-    <row r="218" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="219" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B219" s="5"/>
-    </row>
-    <row r="220" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B220" s="7"/>
-    </row>
-    <row r="221" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B221" s="8"/>
-    </row>
-    <row r="222" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="223" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A223" s="6"/>
-    </row>
-    <row r="224" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="209" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B209" s="5"/>
+    </row>
+    <row r="210" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B210" s="6"/>
+    </row>
+    <row r="211" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B211" s="5"/>
+    </row>
+    <row r="212" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="213" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="214" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B214" s="5"/>
+    </row>
+    <row r="215" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B215" s="6"/>
+    </row>
+    <row r="216" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="217" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="219" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="220" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B220" s="5"/>
+    </row>
+    <row r="221" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B221" s="6"/>
+    </row>
+    <row r="222" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="223" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="224" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="225" ht="14.25" customHeight="1"/>
     <row r="226" ht="14.25" customHeight="1"/>
     <row r="227" ht="14.25" customHeight="1"/>
@@ -3722,7 +3674,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testb\Documents\UiPath\FederalBotFactory\TreasuryConfirmation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4684397E-B22A-4EC8-AEFD-4953805489F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBF869B-CFE4-490C-91F0-CBE27FC69CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="279">
   <si>
     <t>Name</t>
   </si>
@@ -857,13 +857,10 @@
     <t>in number</t>
   </si>
   <si>
-    <t>gmahesh2789@gmail.com; hariharangouri@gmail.com</t>
-  </si>
-  <si>
-    <t>gmahesh2789@gmail.com; hariharangouri@gmail.com; sunil.melam@gmail.com</t>
-  </si>
-  <si>
     <t>TreasuryConfirmation_</t>
+  </si>
+  <si>
+    <t>testbotforuipath@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1566,7 +1563,7 @@
         <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1">
@@ -2347,7 +2344,7 @@
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C145" t="s">
         <v>45</v>
